--- a/CashFlow/CDNS_cashflow.xlsx
+++ b/CashFlow/CDNS_cashflow.xlsx
@@ -74,8 +74,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>245000000.0</v>
+        <v>-21094000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>229000000.0</v>
+        <v>-25685000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>163757000.0</v>
+        <v>17133000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>97665000.0</v>
+        <v>3685000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>38594000.0</v>
+        <v>-27666000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-33024000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1205000000.0</v>
+        <v>22464000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1170000000.0</v>
+        <v>18394000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>866916000.0</v>
+        <v>7461000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>607585000.0</v>
+        <v>57444000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>308176000.0</v>
+        <v>-9663000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>33915000.0</v>
